--- a/public/files/Evaluación Proyectos SenaSoft 2019_May 30.xlsx
+++ b/public/files/Evaluación Proyectos SenaSoft 2019_May 30.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SENA\Sena Cursos\2019\2doTrimestre\Senasoft\AppSenasoft\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sena\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA8F1A-BB33-410F-A982-4BAE9318E0F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="452"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha Proyecto" sheetId="1" r:id="rId1"/>
+    <sheet name="Criterios Selección" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>INFORMACIÓN GENERAL</t>
   </si>
@@ -84,10 +84,30 @@
     </r>
   </si>
   <si>
+    <t>Criterios de Selección</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>1.
+ANÁLISIS DE LA PROBLEMÁTICA</t>
+  </si>
+  <si>
+    <t>2.
+ANÁLISIS DE LA SOLUCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULTADOS </t>
+  </si>
+  <si>
     <t>Regional:</t>
   </si>
   <si>
     <t>Programa de Formación:</t>
+  </si>
+  <si>
+    <t>Datos del proyecto</t>
   </si>
   <si>
     <t xml:space="preserve">Ambiental:
@@ -109,6 +129,9 @@
     <t>Beneficiarios del proyecto</t>
   </si>
   <si>
+    <t>SELECCIÓN DE PROYECTOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Celular:
 </t>
   </si>
@@ -116,40 +139,62 @@
     <t>Correo misena</t>
   </si>
   <si>
-    <t>Sectores</t>
-  </si>
-  <si>
-    <t>Primario</t>
-  </si>
-  <si>
-    <t>Terciario</t>
-  </si>
-  <si>
     <t>Sector productivo:</t>
   </si>
   <si>
-    <t>Programas</t>
-  </si>
-  <si>
-    <t>Tecnólogo en producción multimedia</t>
-  </si>
-  <si>
-    <t>Tecnólogo análisis y desarrollo de sistemas de información</t>
-  </si>
-  <si>
-    <t>Tecnólogo gestión de redes de datos</t>
-  </si>
-  <si>
-    <t>Tecnólogo mantenimiento equipos de cómputo, diseño e instalación de cableado estructurado</t>
-  </si>
-  <si>
-    <t>Tecnólogp producción de medios audiovisuales digitales</t>
+    <t>¿Identifica la necesidad o problema a resolver?</t>
+  </si>
+  <si>
+    <t>¿Identifica los usuarios o clientes de la solución?</t>
+  </si>
+  <si>
+    <t>¿Justifica la necesidad o problema a resolver?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Los objetivos están formulados de acuerdo a la estructura (Verbo + Objeto + Condición) y apuntan a la solución del problema? </t>
+  </si>
+  <si>
+    <t>¿Presenta claramente el alcance de una propuesta de solución?</t>
+  </si>
+  <si>
+    <t>¿La propuesta genera impacto a nivel social, ambiental y tecnológico?</t>
+  </si>
+  <si>
+    <t>¿Los resultados esperados se articulan con los objetivos?</t>
+  </si>
+  <si>
+    <t>3.
+INNOVACIÒN</t>
   </si>
   <si>
     <t>FICHA TÉCNICA DEL PROYECTO</t>
   </si>
   <si>
-    <t>Secundarios</t>
+    <t>Evaluador 1</t>
+  </si>
+  <si>
+    <t>Evaluador 2</t>
+  </si>
+  <si>
+    <t>Evaluador 3</t>
+  </si>
+  <si>
+    <t>Nombre Evaluador 1</t>
+  </si>
+  <si>
+    <t>Nombre Evaluador 2</t>
+  </si>
+  <si>
+    <t>Nombre Evaluador 3</t>
+  </si>
+  <si>
+    <t>NOTA PROMEDIO PREGUNTA</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
+  </si>
+  <si>
+    <t>Celular</t>
   </si>
   <si>
     <t xml:space="preserve">Impacto del proyecto (Describa): </t>
@@ -159,6 +204,15 @@
   </si>
   <si>
     <t>Nombre Aprendiz Expositor:</t>
+  </si>
+  <si>
+    <t>¿El proyecto es pertinente para el mercado o contexto para el que está pensado?</t>
+  </si>
+  <si>
+    <t>¿El proyecto propone un uso adecuado de recursos humanos y ambientales y se ajusta a la ética y normatividad vigente, muestra viabilidad financiera y es creativo en la eficiencia y aprovechamiento de los recursos?</t>
+  </si>
+  <si>
+    <t>¿El proyecto presenta valores y beneficios diferenciadores sobre otros productos o procesos de este tipo?</t>
   </si>
   <si>
     <r>
@@ -187,6 +241,9 @@
     </r>
   </si>
   <si>
+    <t>¿El proyecto plantearía el posible desarrollo de un nuevo mercado y/o de uno existente?</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Presupuesto del proyecto: </t>
     </r>
@@ -203,18 +260,82 @@
     </r>
   </si>
   <si>
+    <t>¿El proyecto  involucra por lo menos uno de los siguientes componentes: Desarrollo web, Inteligencia Artificial, Internet de las cosas, Big data?</t>
+  </si>
+  <si>
+    <t>¿Presenta un proyecto de creación o mejoramiento de un producto o proceso'</t>
+  </si>
+  <si>
     <t>Ficha:</t>
   </si>
   <si>
     <t>De los siguientes componentes marque los que involucra el proyecto :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Instrucciones de diligenciamiento: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Este instrumento está diseñado por capítulos que conforman los criterios de selección un proyecto. A continuación se detalla la escala de evaluación, la cual va de 0.0 a 5.0, donde 5.0 es la mayor nota. Puede utilizar decimales, esto permitirá reducir al máximo posibles empates. Para aprobar, un proyecto debe obtener una evaluación igual o superior a 4.0. Si </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se realiza la presentación del proyecto, la nota es 0,0. Si tiene alguna observación que amerite registrarse, por favor hágalo en la columna siguiente, al frente del item respectivo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -242,6 +363,58 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -264,15 +437,45 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -403,27 +606,126 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,11 +733,59 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -450,122 +800,268 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,67 +1098,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>23708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2159000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>71544</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="23708"/>
-          <a:ext cx="6270625" cy="1190836"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -686,7 +1121,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -744,7 +1179,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -802,7 +1237,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -860,7 +1295,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -918,7 +1353,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -953,6 +1388,97 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1154430</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1405890</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="24891" t="42429" r="26455" b="26180"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1154430" y="53340"/>
+          <a:ext cx="4716780" cy="1318335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="24891" t="42429" r="26455" b="26180"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3478530" y="30404"/>
+          <a:ext cx="4716780" cy="1318335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1218,12 +1744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A5:J46"/>
+  <dimension ref="A9:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,289 +1759,253 @@
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+    </row>
+    <row r="10" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+    </row>
+    <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+    </row>
+    <row r="25" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+    </row>
+    <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+    </row>
+    <row r="35" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+    </row>
+    <row r="37" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="J9" t="s">
+    <row r="38" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+    </row>
+    <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="J19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-    </row>
-    <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
     </row>
     <row r="43" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
     </row>
     <row r="44" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
     </row>
     <row r="46" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1551,10 +2041,10 @@
     <mergeCell ref="A43:C43"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Elija una opción de la lista " sqref="A17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Elija una opción de la lista " sqref="A17">
       <formula1>$J$7:$J$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Elija una opción de la lista desplegable" sqref="B15:C15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Elija una opción de la lista desplegable" sqref="B15:C15">
       <formula1>$J$15:$J$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -1691,4 +2181,605 @@
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A10:I39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="str">
+        <f>+'Ficha Proyecto'!A12</f>
+        <v xml:space="preserve">Título del proyecto: </v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="14">
+        <f>'Ficha Proyecto'!B12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="str">
+        <f>+'Ficha Proyecto'!A13</f>
+        <v>Regional:</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="14">
+        <f>'Ficha Proyecto'!A14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="str">
+        <f>+'Ficha Proyecto'!B13</f>
+        <v>Centro de Formación:</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="14">
+        <f>'Ficha Proyecto'!B14</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="str">
+        <f>+'Ficha Proyecto'!A15</f>
+        <v>Programa de Formación:</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="14">
+        <f>'Ficha Proyecto'!B15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="str">
+        <f>+'Ficha Proyecto'!A16</f>
+        <v>Sector productivo:</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="14">
+        <f>'Ficha Proyecto'!A17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="str">
+        <f>'Ficha Proyecto'!B16</f>
+        <v>Nombre Aprendiz Expositor:</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="14">
+        <f>'Ficha Proyecto'!B17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="str">
+        <f>+'Ficha Proyecto'!A18</f>
+        <v>No. Identificación</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="14">
+        <f>'Ficha Proyecto'!A19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="str">
+        <f>+'Ficha Proyecto'!B18</f>
+        <v>Correo misena</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="14">
+        <f>'Ficha Proyecto'!B19</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="14">
+        <f>'Ficha Proyecto'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="84"/>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5" t="str">
+        <f>IFERROR(AVERAGE(E25:G25),"No hay datos")</f>
+        <v>No hay datos</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="5" t="str">
+        <f>IFERROR(AVERAGE(E26:G26),"No hay datos")</f>
+        <v>No hay datos</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="59"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="5" t="str">
+        <f t="shared" ref="H27:H37" si="0">IFERROR(AVERAGE(E27:G27),"No hay datos")</f>
+        <v>No hay datos</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68"/>
+      <c r="B29" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+      <c r="B31" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="59"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="68"/>
+      <c r="B33" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="62"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>No hay datos</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="16">
+        <f>SUM(B25:B37)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="18">
+        <f>IFERROR(SUMPRODUCT(E25:E27,$B$25:$B$27)+SUMPRODUCT(E28:E31,$B$28:$B$31)+SUMPRODUCT(E32:E37,$B$32:$B$37),"No hay datos")</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <f>IFERROR(SUMPRODUCT(F25:F27,$B$25:$B$27)+SUMPRODUCT(F28:F31,$B$28:$B$31)+SUMPRODUCT(F32:F37,$B$32:$B$37),"No hay datos")</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="18">
+        <f>IFERROR(SUMPRODUCT(G25:G27,$B$25:$B$27)+SUMPRODUCT(G28:G31,$B$28:$B$31)+SUMPRODUCT(G32:G37,$B$32:$B$37),"No hay datos")</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <f>IFERROR(SUMPRODUCT(H25:H27,$B$25:$B$27)+SUMPRODUCT(H28:H31,$B$28:$B$31)+SUMPRODUCT(H32:H37,$B$32:$B$37),"No hay datos")</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="21" t="str">
+        <f>IF(H39&gt;=3,"SELECCIONADO", "NO SELECCIONADO")</f>
+        <v>NO SELECCIONADO</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="bp/DTLUKuoDfsXLCMWA17MeUbV1NdbcFcxN0MZj+VwtVTD28zoPDpj1toYy08c6okZb0yXvWme0n7XfZztRFQQ==" saltValue="fqOxsJuCFtSKSJjWq1CUHA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="37">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:I21"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba un número entre 0 y 5. Puede usar cifras decimales." sqref="I25:I38">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>